--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A737DC33-7B80-4249-8626-84D37A613E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96261CD-EF34-4DBE-B671-D09C1F151B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="1245" windowWidth="24825" windowHeight="10350" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="31065" yWindow="3585" windowWidth="24825" windowHeight="10350" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>D01</t>
     <phoneticPr fontId="1"/>
@@ -212,6 +213,106 @@
   </si>
   <si>
     <t>※ analog 0-1.8V 10bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VMM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AEn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bout2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bout1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aout2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aout1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIN5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIN4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bat in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1K</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -250,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -338,13 +439,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -375,11 +599,92 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,6 +701,1644 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DBB82D-26A8-8126-7AB0-9FF7AB3E1E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="1638300"/>
+          <a:ext cx="0" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E60E93D-B7D1-4782-A595-172254E7AEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="4467225"/>
+          <a:ext cx="1905000" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7806ECBA-3603-4472-B0C5-311AB2ABD788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1638300"/>
+          <a:ext cx="0" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE523FE-D06D-44C7-B0F7-FB214B9D01BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="4210050"/>
+          <a:ext cx="1971675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC959D88-7868-4DED-A679-CB573ACB2C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="4191000"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914122F9-B037-4AA3-A6A8-B4EC7EFFE62B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="2105025"/>
+          <a:ext cx="3724275" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF8FFED-7614-4AD7-89FF-C2E74721D975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="2552700"/>
+          <a:ext cx="3686175" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993F7DA7-49E6-4BA0-9681-EA52CA5EBACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="2305050"/>
+          <a:ext cx="3686175" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8565063E-FCBE-480A-87C2-9E94A68FE124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3505200" y="1828800"/>
+          <a:ext cx="3733800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F569A61-B99D-4C56-80CA-971742FA98D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="1104900"/>
+          <a:ext cx="790575" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCB1F02-67C7-437A-956A-0611FE77E67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6448425" y="1295400"/>
+          <a:ext cx="790575" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9465B9CC-05F2-4B7C-9412-C1FD4789CE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="1314450"/>
+          <a:ext cx="209550" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401615B2-E070-4D00-9883-C274DF3F4E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="1562100"/>
+          <a:ext cx="209550" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD1F2C8-4B21-411F-AAC4-D171F6F5328D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="1781175"/>
+          <a:ext cx="209550" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE1D25-4D09-404E-B94B-2583F9987925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="2047875"/>
+          <a:ext cx="209550" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E256D987-F5A8-43A9-ABC7-DF453F7E7A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3743325" y="2990850"/>
+          <a:ext cx="895350" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E5A968-7C7F-4155-B1DD-0B5DFF64565D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="3000375"/>
+          <a:ext cx="2667000" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110A8503-7EF0-49CF-9169-EC17B34D5002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="3295650"/>
+          <a:ext cx="1390650" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF4EF91-12EC-4B97-A1F4-E499D4C7A021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="2790825"/>
+          <a:ext cx="1276350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F75B780-4A8C-4F39-BFB6-E28C33EDE8E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6400800" y="3314700"/>
+          <a:ext cx="419100" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8EC6DA-84B7-498B-A056-1964055CD5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="3295650"/>
+          <a:ext cx="1362075" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C0E2B8-B23B-4B5F-B79D-A6A470165C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4743450" y="3371850"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5023B364-0075-4FE7-B2EF-948B5676AC92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5857875" y="3333750"/>
+          <a:ext cx="419100" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35052108-1EED-468A-9715-25D66CB41D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="3248025"/>
+          <a:ext cx="1638300" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF1205C-FF51-48FC-9525-F851AE212AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5905500" y="2790825"/>
+          <a:ext cx="9525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938EA55E-55ED-42E5-83EC-09252AEE3C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="2790825"/>
+          <a:ext cx="9525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568F1059-54C5-49E1-B8F6-8E813E285E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5095875" y="2800350"/>
+          <a:ext cx="9525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6E249A-ACC5-4FDD-8C67-3F4943BEA079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5648325" y="2790825"/>
+          <a:ext cx="9525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D344625-D3C2-41BC-9C15-A5C8EEB4C669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6629400" y="2714625"/>
+          <a:ext cx="390525" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5FE33D-B7F7-4886-903C-094B349657E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1571625"/>
+          <a:ext cx="352425" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73A0891-DC72-4AD9-9F22-2606FBFB62DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="819150"/>
+          <a:ext cx="190500" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,303 +2640,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAE9F4-128A-4D32-9F94-9887A5A511C3}">
   <dimension ref="E7:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="10" customWidth="1"/>
-    <col min="8" max="10" width="9" style="10"/>
-    <col min="11" max="11" width="18.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="10"/>
+    <col min="1" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="5" customWidth="1"/>
+    <col min="8" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="18.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1001,4 +2933,467 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29A2DD-4D36-4B96-81AF-4631D4125FF3}">
+  <dimension ref="M2:AJ22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="14" max="14" width="3.125" customWidth="1"/>
+    <col min="23" max="24" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>13</v>
+      </c>
+      <c r="AA2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="T3" s="14"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="27"/>
+    </row>
+    <row r="4" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5">
+        <v>15</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>17</v>
+      </c>
+      <c r="AE5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="Q7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="26"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26"/>
+      <c r="T12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="17"/>
+    </row>
+    <row r="14" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="AC14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="22"/>
+    </row>
+    <row r="15" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="26"/>
+    </row>
+    <row r="16" spans="13:36" x14ac:dyDescent="0.4">
+      <c r="T16" s="14"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T17" s="15"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T18" s="15"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T19" s="15"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T20" s="15"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T21" s="15"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="17"/>
+    </row>
+    <row r="22" spans="20:27" x14ac:dyDescent="0.4">
+      <c r="T22" s="16"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96261CD-EF34-4DBE-B671-D09C1F151B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3941A44-87AC-4DA1-BF47-40E9111927DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="3585" windowWidth="24825" windowHeight="10350" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>D01</t>
     <phoneticPr fontId="1"/>
@@ -272,18 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bat in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ML</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,6 +301,22 @@
   </si>
   <si>
     <t>1K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR_Right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,9 +606,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -677,13 +675,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +707,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -731,8 +729,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="1638300"/>
-          <a:ext cx="0" cy="2847975"/>
+          <a:off x="3933825" y="3552825"/>
+          <a:ext cx="0" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -819,8 +817,8 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -841,8 +839,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="1638300"/>
-          <a:ext cx="0" cy="2600325"/>
+          <a:off x="4162425" y="3552825"/>
+          <a:ext cx="0" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -982,15 +980,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1005,9 +1003,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3524250" y="2105025"/>
-          <a:ext cx="3724275" cy="238125"/>
+        <a:xfrm>
+          <a:off x="3876675" y="1638300"/>
+          <a:ext cx="3371850" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1037,16 +1035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1060,9 +1058,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3524250" y="2552700"/>
-          <a:ext cx="3686175" cy="228600"/>
+        <a:xfrm>
+          <a:off x="3209925" y="1638300"/>
+          <a:ext cx="4000500" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1093,15 +1091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1115,9 +1113,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3524250" y="2305050"/>
-          <a:ext cx="3686175" cy="228600"/>
+        <a:xfrm>
+          <a:off x="3514725" y="1619250"/>
+          <a:ext cx="3695700" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1143,15 +1141,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1166,9 +1164,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3505200" y="1828800"/>
-          <a:ext cx="3733800" cy="247650"/>
+        <a:xfrm>
+          <a:off x="4200525" y="1590675"/>
+          <a:ext cx="3038475" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1504,16 +1502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1528,8 +1526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3743325" y="2990850"/>
-          <a:ext cx="895350" cy="285750"/>
+          <a:off x="3200400" y="2962275"/>
+          <a:ext cx="1457325" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1565,10 +1563,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1583,8 +1581,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="3000375"/>
-          <a:ext cx="2667000" cy="285750"/>
+          <a:off x="4667250" y="2981325"/>
+          <a:ext cx="2228850" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1614,16 +1612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1637,9 +1635,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5667375" y="3295650"/>
-          <a:ext cx="1390650" cy="19050"/>
+        <a:xfrm flipV="1">
+          <a:off x="6486525" y="3295650"/>
+          <a:ext cx="571500" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1716,16 +1714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1740,8 +1738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6400800" y="3314700"/>
-          <a:ext cx="419100" cy="238125"/>
+          <a:off x="5676900" y="3209925"/>
+          <a:ext cx="1638300" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1750,13 +1748,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1767,15 +1765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1791,8 +1789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="3295650"/>
-          <a:ext cx="1362075" cy="228600"/>
+          <a:off x="3771900" y="3238500"/>
+          <a:ext cx="1304925" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1819,15 +1817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1842,8 +1840,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4743450" y="3371850"/>
-          <a:ext cx="657225" cy="171450"/>
+          <a:off x="4752975" y="3276600"/>
+          <a:ext cx="552450" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1852,64 +1850,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5023B364-0075-4FE7-B2EF-948B5676AC92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5857875" y="3333750"/>
-          <a:ext cx="419100" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1921,15 +1868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1944,8 +1891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="3248025"/>
-          <a:ext cx="1638300" cy="85725"/>
+          <a:off x="3438525" y="3333750"/>
+          <a:ext cx="1171575" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2330,6 +2277,57 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351EDAFC-58B0-41A1-B705-46F540CC014B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="3305175"/>
+          <a:ext cx="390525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2940,7 +2938,7 @@
   <dimension ref="M2:AJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2976,24 +2974,18 @@
       </c>
     </row>
     <row r="3" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T3" s="14"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="27"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T4" s="15"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="28" t="s">
+      <c r="T4" s="14"/>
+      <c r="AA4" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3016,14 +3008,8 @@
       <c r="S5">
         <v>6</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="28" t="s">
+      <c r="T5" s="14"/>
+      <c r="AA5" s="27" t="s">
         <v>60</v>
       </c>
       <c r="AB5">
@@ -3043,162 +3029,129 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="28" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="14"/>
+      <c r="AA6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="22"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="21"/>
       <c r="AF6" t="s">
         <v>12</v>
       </c>
       <c r="AI6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="Q7" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="28" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="T7" s="14"/>
+      <c r="X7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="22"/>
       <c r="AF7" t="s">
         <v>60</v>
       </c>
       <c r="AI7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AJ7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="13:36" x14ac:dyDescent="0.4">
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="28" t="s">
+      <c r="N8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="AA8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="23"/>
+      <c r="AE8" s="22"/>
       <c r="AF8" t="s">
         <v>53</v>
       </c>
       <c r="AI8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="13:36" x14ac:dyDescent="0.4">
       <c r="M9">
         <v>4</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="28" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="T9" s="14"/>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="30" t="s">
+      <c r="AB9" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="23"/>
+      <c r="AE9" s="22"/>
       <c r="AF9" t="s">
         <v>54</v>
       </c>
       <c r="AI9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AJ9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="13:36" x14ac:dyDescent="0.4">
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="26"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="30" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="T10" s="14"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" t="s">
         <v>50</v>
       </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="23"/>
+      <c r="AE10" s="22"/>
       <c r="AF10" t="s">
         <v>55</v>
       </c>
@@ -3207,24 +3160,21 @@
       <c r="M11">
         <v>6</v>
       </c>
-      <c r="N11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="30" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="23"/>
+      <c r="AE11" s="22"/>
       <c r="AF11" t="s">
         <v>56</v>
       </c>
@@ -3233,20 +3183,21 @@
       <c r="M12">
         <v>7</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="26"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
       <c r="T12" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="36" t="s">
+      <c r="AA12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AB12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="25"/>
       <c r="AF12" t="s">
         <v>47</v>
       </c>
@@ -3255,141 +3206,116 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="15"/>
+      <c r="N13" s="14"/>
       <c r="T13" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="17"/>
+      <c r="AE13" s="16"/>
     </row>
     <row r="14" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M14">
         <v>9</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="AC14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="22"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="AC14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M15">
         <v>10</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="31" t="s">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="26"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="25"/>
     </row>
     <row r="16" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T17" s="15"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="17"/>
+      <c r="T17" s="14"/>
+      <c r="AA17" s="16"/>
     </row>
     <row r="18" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T18" s="15"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="17"/>
+      <c r="T18" s="14"/>
+      <c r="AA18" s="16"/>
     </row>
     <row r="19" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T19" s="15"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="17"/>
-    </row>
-    <row r="20" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T20" s="15"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="17"/>
+      <c r="T19" s="14"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="16"/>
+    </row>
+    <row r="20" spans="20:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T20" s="14"/>
+      <c r="AA20" s="16"/>
     </row>
     <row r="21" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T21" s="15"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="17"/>
-    </row>
-    <row r="22" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T22" s="16"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="18"/>
+      <c r="T21" s="14"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
+      <c r="AA21" s="16"/>
+    </row>
+    <row r="22" spans="20:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T22" s="15"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22" s="24"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3941A44-87AC-4DA1-BF47-40E9111927DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33248ECC-7266-49D1-ADF5-3C33430080C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="2895" yWindow="630" windowWidth="24825" windowHeight="14085" activeTab="2" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="schematic" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -572,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,15 +682,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA50021"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF009900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2339,6 +2344,3276 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432A43E-4145-C060-1F35-7397FB5450BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1074083" y="575422"/>
+          <a:ext cx="9048191" cy="6051737"/>
+          <a:chOff x="1000124" y="104775"/>
+          <a:chExt cx="6924675" cy="6124575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE08E30E-42EB-4213-AB90-5CDACD3122F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1000124" y="104775"/>
+            <a:ext cx="6905626" cy="6096000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 4636"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="四角形: 上の 2 つの角を丸める 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D421AAB8-B794-4117-9E03-C5CDDA5CB29D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1009650" y="5686426"/>
+            <a:ext cx="6915149" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+              <a:gd name="adj2" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0DABFD-59C1-272F-CF34-D45196049A75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2866805" y="5629275"/>
+            <a:ext cx="3088858" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>SORA-Q</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Flagship Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63834BE3-9E18-C2B7-8222-D0BFD5C4A813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="26185" t="33288" r="20891" b="28133"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257301" y="885825"/>
+          <a:ext cx="2819400" cy="2055195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1187407-9E3E-F33F-A65F-3EC380E97AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1500467" y="3663203"/>
+          <a:ext cx="2536452" cy="2257985"/>
+          <a:chOff x="4324349" y="3724275"/>
+          <a:chExt cx="2543176" cy="2286000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="グループ化 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24B0CB1-1BF2-4309-814B-8417B6D2E45C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4324349" y="3724275"/>
+            <a:ext cx="2543176" cy="2286000"/>
+            <a:chOff x="1285874" y="1362075"/>
+            <a:chExt cx="2543176" cy="2286000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA1930C-8D51-F4E5-F5AC-62565D89BAA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1285874" y="1362075"/>
+              <a:ext cx="2505075" cy="2286000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 14583"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="四角形: 上の 2 つの角を丸める 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884C8F2C-2B30-98FB-B5CB-D241546BDF9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="1314450" y="3152775"/>
+              <a:ext cx="2486025" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA0CBB-A46A-B09D-736C-9E8E0427113E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1724025" y="3143251"/>
+              <a:ext cx="2105025" cy="438150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>カメラボード</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43BA6C5-2C91-6387-1DFE-E5011441D36C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="43583" t="17493" r="15250" b="13994"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4962525" y="4114800"/>
+            <a:ext cx="1211378" cy="1152525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C32443-9B00-80FD-A475-024D7F8C4452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7283262" y="3663203"/>
+          <a:ext cx="2505637" cy="2257985"/>
+          <a:chOff x="7143749" y="3752850"/>
+          <a:chExt cx="2514601" cy="2286000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="グループ化 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73698D12-F832-49E1-B09A-EA2A25B2CD50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7143749" y="3752850"/>
+            <a:ext cx="2514601" cy="2286000"/>
+            <a:chOff x="1285874" y="1362075"/>
+            <a:chExt cx="2514601" cy="2286000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242601B1-52AF-13C1-07BB-020CC07C8497}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1285874" y="1362075"/>
+              <a:ext cx="2505075" cy="2286000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 14583"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="四角形: 上の 2 つの角を丸める 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE473F81-BA32-AFE4-276A-9837D9064681}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="1314450" y="3152775"/>
+              <a:ext cx="2486025" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="テキスト ボックス 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2753FF69-90EC-399C-9CE0-25AE7627B1E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1762125" y="3133725"/>
+              <a:ext cx="1714500" cy="466725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Wi-Fi</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ボード</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="図 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BC18E5-1716-80ED-E7E4-160B8B830E8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="22826" t="3042" r="21304" b="4348"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7505700" y="3886199"/>
+            <a:ext cx="1838818" cy="1524001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102176</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>212515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6FF25A-08E3-D9C9-6E79-B9F08F64D7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7334" t="4166" r="7000" b="6458"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7645976" y="1057275"/>
+          <a:ext cx="1840923" cy="1536490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D0BE7D-81A1-5AAD-947F-6084DC070E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4234703" y="934571"/>
+          <a:ext cx="2715185" cy="779369"/>
+          <a:chOff x="4343400" y="933450"/>
+          <a:chExt cx="2724150" cy="790575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="四角形: 角を丸くする 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3661F9-E77A-4A06-8F60-11C8A43D51A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="933450"/>
+            <a:ext cx="2724150" cy="790575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 44703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E976B532-70F0-A227-4343-0F634A7E1C5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4505325" y="1047750"/>
+            <a:ext cx="2438400" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コアレスモータ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>×</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>２</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C7DE0E-511C-4787-AD5C-6D6FB095BDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4215653" y="2044513"/>
+          <a:ext cx="2715185" cy="779369"/>
+          <a:chOff x="4343400" y="933450"/>
+          <a:chExt cx="2724150" cy="790575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D36135A-D597-3DBB-EC9D-DF1E5745BF5C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="933450"/>
+            <a:ext cx="2724150" cy="790575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 44703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC36A90-8D95-1FE5-1C76-90D5074D9D8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4505325" y="1047750"/>
+            <a:ext cx="2438400" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>フォトリフレクタ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F43F2F-0220-4B09-0BE1-A17653C796C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010024" y="4848225"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7225CE-E547-479B-AE05-04822F0B7441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896099" y="4848225"/>
+          <a:ext cx="409575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37624EC-EA5E-4B29-BA51-5D99BE06E1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="3381375"/>
+          <a:ext cx="2600325" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="009900"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B54E50F-63E5-4C43-98BB-01F4E82ADE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="3114675"/>
+          <a:ext cx="0" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="009900"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD53018-4133-42F5-8371-AE198C2F2255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="3390900"/>
+          <a:ext cx="0" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="009900"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4437828-FD45-3BAA-DF59-C570F4C9B128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4377577" y="3663203"/>
+          <a:ext cx="2505636" cy="2277035"/>
+          <a:chOff x="1419224" y="3724275"/>
+          <a:chExt cx="2514601" cy="2305050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D6219F-2810-0D01-EADB-18977A575C6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1419224" y="3724275"/>
+            <a:ext cx="2514601" cy="2305050"/>
+            <a:chOff x="1285874" y="1362075"/>
+            <a:chExt cx="2514601" cy="2305050"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EEFA73-73B8-4D9E-3AB1-6D4B1563FC49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1285874" y="1362075"/>
+              <a:ext cx="2505075" cy="2286000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 14583"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="四角形: 上の 2 つの角を丸める 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715244D2-3B84-41CB-A675-5769734E515D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="1314450" y="3152775"/>
+              <a:ext cx="2486025" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C48A58-DF3E-44E7-B79A-600D377BA3F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1666875" y="3162300"/>
+              <a:ext cx="2124075" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>メインボード</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="図 14" descr="Spresense Main Board Top">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59F9051-8DD7-0D2D-AB41-B3D270EE1136}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="9744" t="28689" r="11453" b="28138"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1752600" y="4295775"/>
+            <a:ext cx="1856901" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08B10B7-4C7B-4BCE-81B3-792FBD672377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="2895600"/>
+          <a:ext cx="0" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08B10B7-4C7B-4BCE-81B3-792FBD672377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="1338263"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166A3E1F-ADC1-C999-E893-47DAD728BB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7273738" y="848846"/>
+          <a:ext cx="2505637" cy="2257985"/>
+          <a:chOff x="1285874" y="1362075"/>
+          <a:chExt cx="2514601" cy="2286000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828040A7-9700-BF8E-C019-8A1759B4B133}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1285874" y="1362075"/>
+            <a:ext cx="2505075" cy="2286000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14583"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="009900"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="四角形: 上の 2 つの角を丸める 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017C4564-96E9-1957-F027-2D4D3F346E4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1314450" y="3152775"/>
+            <a:ext cx="2486025" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+              <a:gd name="adj2" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="009900"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="009900"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E976B532-70F0-A227-4343-0F634A7E1C5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1409699" y="3152775"/>
+            <a:ext cx="2247900" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>モータードライバ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 5" descr="リソース : Node-RED日本ユーザ会">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B860E0-4F41-B696-B197-5A37E647B968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11658600" y="1666875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="AutoShape 6" descr="リソース : Node-RED日本ユーザ会">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ADB69C-D29E-BFDC-F444-526126622684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15773400" y="2143125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2057" name="AutoShape 9" descr="リソース : Node-RED日本ユーザ会">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491CF66C-8917-D1CA-06ED-CE8F083C2789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15773400" y="4524375"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22973</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2059" name="グループ化 2058">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779B99E7-4FB1-1449-B76A-173D5225CB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10735234" y="571500"/>
+          <a:ext cx="3294529" cy="6040532"/>
+          <a:chOff x="10768853" y="582706"/>
+          <a:chExt cx="3294529" cy="6040532"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="58" name="グループ化 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5989DF19-C739-49AE-B55A-16F365F1C47C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10768853" y="582706"/>
+            <a:ext cx="3294529" cy="6040532"/>
+            <a:chOff x="1000124" y="104775"/>
+            <a:chExt cx="6924675" cy="6113235"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="四角形: 角を丸くする 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666511ED-BB1B-3604-F82D-2C38D25D8D0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1000124" y="104775"/>
+              <a:ext cx="6905626" cy="6096000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 7127"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:srgbClr val="A50021"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="四角形: 上の 2 つの角を丸める 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDD3ECC-4245-E458-0543-AED5F9183E0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="1009650" y="5686426"/>
+              <a:ext cx="6915149" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="A50021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="A50021"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="テキスト ボックス 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF8E348-37E0-6255-B0A7-B15DA1724256}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2634519" y="5617935"/>
+              <a:ext cx="4654467" cy="600075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Node-RED</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="62" name="図 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CC576-9E74-BEEF-E231-E8EAE194CC86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10961594" y="788896"/>
+            <a:ext cx="2926635" cy="2900081"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="63" name="グループ化 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB4086-E4FD-4729-82BC-15841D52C1AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11154654" y="3846819"/>
+            <a:ext cx="2505318" cy="788974"/>
+            <a:chOff x="4343400" y="933450"/>
+            <a:chExt cx="2724150" cy="790575"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2048" name="四角形: 角を丸くする 2047">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9850A544-5528-790D-DC5D-BDA133CC1967}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4343400" y="933450"/>
+              <a:ext cx="2724150" cy="790575"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 44703"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:srgbClr val="A50021"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="A50021"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="テキスト ボックス 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC25632D-4128-9171-CAEE-F85F1E860FD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="1047750"/>
+              <a:ext cx="2438400" cy="466725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="A50021"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>HTTP</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="A50021"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>サーバ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2051" name="グループ化 2050">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9BDFEE-3928-49FC-8FBA-50F2FC991AFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11168263" y="4941874"/>
+            <a:ext cx="2486106" cy="788893"/>
+            <a:chOff x="4343400" y="933450"/>
+            <a:chExt cx="2724150" cy="790575"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="四角形: 角を丸くする 2051">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89FBD2-D966-9A20-274C-045C7382ED4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4343400" y="933450"/>
+              <a:ext cx="2724150" cy="790575"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 44703"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:srgbClr val="A50021"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="A50021"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="テキスト ボックス 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C7BFC-366E-9829-1E38-C07A794574CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="1047750"/>
+              <a:ext cx="2438400" cy="466725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="A50021"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>MQTT</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="A50021"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ブローカー</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184094</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2060" name="直線コネクタ 2059">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC9845B-B989-46D9-9FF5-EAAD90A9BF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2048" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782734" y="4224618"/>
+          <a:ext cx="1338301" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="A50021"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>197703</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2063" name="直線コネクタ 2062">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB629282-BF2F-478E-8797-03FAD1445703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2052" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793940" y="5322794"/>
+          <a:ext cx="1340704" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="A50021"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2937,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29A2DD-4D36-4B96-81AF-4631D4125FF3}">
   <dimension ref="M2:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3116,8 +6391,6 @@
         <v>4</v>
       </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
       <c r="T9" s="14"/>
       <c r="X9" t="s">
         <v>71</v>
@@ -3144,8 +6417,6 @@
         <v>5</v>
       </c>
       <c r="N10" s="14"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
       <c r="T10" s="14"/>
       <c r="AA10" s="27"/>
       <c r="AB10" t="s">
@@ -3161,8 +6432,6 @@
         <v>6</v>
       </c>
       <c r="N11" s="14"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
       <c r="T11" s="15"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
@@ -3184,8 +6453,6 @@
         <v>7</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
       <c r="T12" t="s">
         <v>8</v>
       </c>
@@ -3322,4 +6589,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96B22C-118A-4D05-B4AF-6A517BBEC34B}">
+  <dimension ref="I8:Y37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="12:24" x14ac:dyDescent="0.4">
+      <c r="R8"/>
+    </row>
+    <row r="10" spans="12:24" x14ac:dyDescent="0.4">
+      <c r="X10"/>
+    </row>
+    <row r="13" spans="12:24" x14ac:dyDescent="0.4">
+      <c r="L13"/>
+    </row>
+    <row r="16" spans="12:24" x14ac:dyDescent="0.4">
+      <c r="X16"/>
+    </row>
+    <row r="20" spans="9:25" x14ac:dyDescent="0.4">
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="9:25" x14ac:dyDescent="0.4">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="9:25" x14ac:dyDescent="0.4">
+      <c r="U22"/>
+    </row>
+    <row r="30" spans="9:25" x14ac:dyDescent="0.4">
+      <c r="Y30"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33248ECC-7266-49D1-ADF5-3C33430080C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF669D0-34B1-4A44-8318-42A01063384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="630" windowWidth="24825" windowHeight="14085" activeTab="2" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="2655" yWindow="660" windowWidth="24825" windowHeight="14085" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>D01</t>
     <phoneticPr fontId="1"/>
@@ -294,10 +294,6 @@
   </si>
   <si>
     <t>R4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40/15</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -726,7 +722,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DBB82D-26A8-8126-7AB0-9FF7AB3E1E07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +777,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E60E93D-B7D1-4782-A595-172254E7AEAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -836,7 +832,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7806ECBA-3603-4472-B0C5-311AB2ABD788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +887,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE523FE-D06D-44C7-B0F7-FB214B9D01BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +942,7 @@
         <xdr:cNvPr id="18" name="直線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC959D88-7868-4DED-A679-CB573ACB2C9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +997,7 @@
         <xdr:cNvPr id="21" name="直線コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914122F9-B037-4AA3-A6A8-B4EC7EFFE62B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1052,7 @@
         <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF8FFED-7614-4AD7-89FF-C2E74721D975}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1107,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993F7DA7-49E6-4BA0-9681-EA52CA5EBACC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1158,7 @@
         <xdr:cNvPr id="31" name="直線コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8565063E-FCBE-480A-87C2-9E94A68FE124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1209,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F569A61-B99D-4C56-80CA-971742FA98D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1264,7 @@
         <xdr:cNvPr id="35" name="直線コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCB1F02-67C7-437A-956A-0611FE77E67C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1315,7 @@
         <xdr:cNvPr id="37" name="直線コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9465B9CC-05F2-4B7C-9412-C1FD4789CE03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1366,7 @@
         <xdr:cNvPr id="39" name="直線コネクタ 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401615B2-E070-4D00-9883-C274DF3F4E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1417,7 @@
         <xdr:cNvPr id="40" name="直線コネクタ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD1F2C8-4B21-411F-AAC4-D171F6F5328D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1468,7 @@
         <xdr:cNvPr id="41" name="直線コネクタ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE1D25-4D09-404E-B94B-2583F9987925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1519,7 @@
         <xdr:cNvPr id="42" name="直線コネクタ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E256D987-F5A8-43A9-ABC7-DF453F7E7A71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1574,7 @@
         <xdr:cNvPr id="44" name="直線コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E5A968-7C7F-4155-B1DD-0B5DFF64565D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1629,7 @@
         <xdr:cNvPr id="46" name="直線コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110A8503-7EF0-49CF-9169-EC17B34D5002}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1680,7 @@
         <xdr:cNvPr id="48" name="直線コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF4EF91-12EC-4B97-A1F4-E499D4C7A021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1731,7 @@
         <xdr:cNvPr id="51" name="直線コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F75B780-4A8C-4F39-BFB6-E28C33EDE8E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1782,7 @@
         <xdr:cNvPr id="53" name="直線コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8EC6DA-84B7-498B-A056-1964055CD5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1833,7 @@
         <xdr:cNvPr id="55" name="直線コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C0E2B8-B23B-4B5F-B79D-A6A470165C37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1884,7 @@
         <xdr:cNvPr id="61" name="直線コネクタ 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35052108-1EED-468A-9715-25D66CB41D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1935,7 @@
         <xdr:cNvPr id="66" name="直線コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF1205C-FF51-48FC-9525-F851AE212AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1986,7 @@
         <xdr:cNvPr id="69" name="直線コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938EA55E-55ED-42E5-83EC-09252AEE3C8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2037,7 @@
         <xdr:cNvPr id="73" name="直線コネクタ 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568F1059-54C5-49E1-B8F6-8E813E285E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2088,7 @@
         <xdr:cNvPr id="74" name="直線コネクタ 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6E249A-ACC5-4FDD-8C67-3F4943BEA079}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,94 +2123,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="77" name="直線コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D344625-D3C2-41BC-9C15-A5C8EEB4C669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6629400" y="2714625"/>
-          <a:ext cx="390525" cy="85725"/>
+        <a:xfrm flipH="1">
+          <a:off x="6381750" y="2781300"/>
+          <a:ext cx="247650" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5FE33D-B7F7-4886-903C-094B349657E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1571625"/>
-          <a:ext cx="352425" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2253,7 +2194,7 @@
         <xdr:cNvPr id="82" name="直線コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73A0891-DC72-4AD9-9F22-2606FBFB62DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2249,7 @@
         <xdr:cNvPr id="20" name="直線コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351EDAFC-58B0-41A1-B705-46F540CC014B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2305,7 @@
         <xdr:cNvPr id="6" name="グループ化 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432A43E-4145-C060-1F35-7397FB5450BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2324,7 @@
           <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE08E30E-42EB-4213-AB90-5CDACD3122F3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2436,7 +2377,7 @@
           <xdr:cNvPr id="4" name="四角形: 上の 2 つの角を丸める 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D421AAB8-B794-4117-9E03-C5CDDA5CB29D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2495,7 +2436,7 @@
           <xdr:cNvPr id="5" name="テキスト ボックス 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0DABFD-59C1-272F-CF34-D45196049A75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2613,7 +2554,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63834BE3-9E18-C2B7-8222-D0BFD5C4A813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2597,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1187407-9E3E-F33F-A65F-3EC380E97AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2616,7 @@
           <xdr:cNvPr id="10" name="グループ化 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24B0CB1-1BF2-4309-814B-8417B6D2E45C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2694,7 +2635,7 @@
             <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA1930C-8D51-F4E5-F5AC-62565D89BAA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2750,7 +2691,7 @@
             <xdr:cNvPr id="12" name="四角形: 上の 2 つの角を丸める 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884C8F2C-2B30-98FB-B5CB-D241546BDF9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2809,7 +2750,7 @@
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA0CBB-A46A-B09D-736C-9E8E0427113E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2864,7 +2805,7 @@
           <xdr:cNvPr id="16" name="図 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43BA6C5-2C91-6387-1DFE-E5011441D36C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2924,7 +2865,7 @@
         <xdr:cNvPr id="23" name="グループ化 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C32443-9B00-80FD-A475-024D7F8C4452}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2884,7 @@
           <xdr:cNvPr id="17" name="グループ化 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73698D12-F832-49E1-B09A-EA2A25B2CD50}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2962,7 +2903,7 @@
             <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242601B1-52AF-13C1-07BB-020CC07C8497}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3018,7 +2959,7 @@
             <xdr:cNvPr id="19" name="四角形: 上の 2 つの角を丸める 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE473F81-BA32-AFE4-276A-9837D9064681}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3083,7 +3024,7 @@
             <xdr:cNvPr id="20" name="テキスト ボックス 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2753FF69-90EC-399C-9CE0-25AE7627B1E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3148,7 +3089,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BC18E5-1716-80ED-E7E4-160B8B830E8F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3208,7 +3149,7 @@
         <xdr:cNvPr id="25" name="図 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6FF25A-08E3-D9C9-6E79-B9F08F64D7D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3208,7 @@
         <xdr:cNvPr id="34" name="グループ化 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D0BE7D-81A1-5AAD-947F-6084DC070E4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3227,7 @@
           <xdr:cNvPr id="32" name="四角形: 角を丸くする 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3661F9-E77A-4A06-8F60-11C8A43D51A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3339,7 +3280,7 @@
           <xdr:cNvPr id="33" name="テキスト ボックス 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E976B532-70F0-A227-4343-0F634A7E1C5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3520,7 +3461,7 @@
         <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C7DE0E-511C-4787-AD5C-6D6FB095BDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3480,7 @@
           <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D36135A-D597-3DBB-EC9D-DF1E5745BF5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3592,7 +3533,7 @@
           <xdr:cNvPr id="37" name="テキスト ボックス 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC36A90-8D95-1FE5-1C76-90D5074D9D8D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3753,7 +3694,7 @@
         <xdr:cNvPr id="39" name="直線コネクタ 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F43F2F-0220-4B09-0BE1-A17653C796C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3748,7 @@
         <xdr:cNvPr id="41" name="直線コネクタ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7225CE-E547-479B-AE05-04822F0B7441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3809,7 @@
         <xdr:cNvPr id="45" name="直線コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37624EC-EA5E-4B29-BA51-5D99BE06E1EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3864,7 @@
         <xdr:cNvPr id="47" name="直線コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B54E50F-63E5-4C43-98BB-01F4E82ADE6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,7 +3921,7 @@
         <xdr:cNvPr id="51" name="直線コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD53018-4133-42F5-8371-AE198C2F2255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +3976,7 @@
         <xdr:cNvPr id="24" name="グループ化 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4437828-FD45-3BAA-DF59-C570F4C9B128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +3995,7 @@
           <xdr:cNvPr id="9" name="グループ化 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D6219F-2810-0D01-EADB-18977A575C6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4073,7 +4014,7 @@
             <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EEFA73-73B8-4D9E-3AB1-6D4B1563FC49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4129,7 +4070,7 @@
             <xdr:cNvPr id="7" name="四角形: 上の 2 つの角を丸める 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715244D2-3B84-41CB-A675-5769734E515D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4188,7 +4129,7 @@
             <xdr:cNvPr id="8" name="テキスト ボックス 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C48A58-DF3E-44E7-B79A-600D377BA3F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4243,7 +4184,7 @@
           <xdr:cNvPr id="15" name="図 14" descr="Spresense Main Board Top">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59F9051-8DD7-0D2D-AB41-B3D270EE1136}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4303,7 +4244,7 @@
         <xdr:cNvPr id="52" name="直線コネクタ 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08B10B7-4C7B-4BCE-81B3-792FBD672377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4299,7 @@
         <xdr:cNvPr id="55" name="直線コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08B10B7-4C7B-4BCE-81B3-792FBD672377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4356,7 @@
         <xdr:cNvPr id="27" name="グループ化 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166A3E1F-ADC1-C999-E893-47DAD728BB32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,7 +4375,7 @@
           <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828040A7-9700-BF8E-C019-8A1759B4B133}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4487,7 +4428,7 @@
           <xdr:cNvPr id="30" name="四角形: 上の 2 つの角を丸める 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017C4564-96E9-1957-F027-2D4D3F346E4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4546,7 +4487,7 @@
           <xdr:cNvPr id="31" name="テキスト ボックス 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E976B532-70F0-A227-4343-0F634A7E1C5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4616,7 +4557,7 @@
         <xdr:cNvPr id="2053" name="AutoShape 5" descr="リソース : Node-RED日本ユーザ会">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B860E0-4F41-B696-B197-5A37E647B968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4664,7 +4605,7 @@
         <xdr:cNvPr id="2054" name="AutoShape 6" descr="リソース : Node-RED日本ユーザ会">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ADB69C-D29E-BFDC-F444-526126622684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4653,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9" descr="リソース : Node-RED日本ユーザ会">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491CF66C-8917-D1CA-06ED-CE8F083C2789}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4760,7 +4701,7 @@
         <xdr:cNvPr id="2059" name="グループ化 2058">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779B99E7-4FB1-1449-B76A-173D5225CB30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4720,7 @@
           <xdr:cNvPr id="58" name="グループ化 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5989DF19-C739-49AE-B55A-16F365F1C47C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4798,7 +4739,7 @@
             <xdr:cNvPr id="59" name="四角形: 角を丸くする 58">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666511ED-BB1B-3604-F82D-2C38D25D8D0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4851,7 +4792,7 @@
             <xdr:cNvPr id="60" name="四角形: 上の 2 つの角を丸める 59">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDD3ECC-4245-E458-0543-AED5F9183E0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4910,7 +4851,7 @@
             <xdr:cNvPr id="61" name="テキスト ボックス 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF8E348-37E0-6255-B0A7-B15DA1724256}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4989,7 +4930,7 @@
           <xdr:cNvPr id="62" name="図 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CC576-9E74-BEEF-E231-E8EAE194CC86}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5035,7 +4976,7 @@
           <xdr:cNvPr id="63" name="グループ化 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB4086-E4FD-4729-82BC-15841D52C1AC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5054,7 +4995,7 @@
             <xdr:cNvPr id="2048" name="四角形: 角を丸くする 2047">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9850A544-5528-790D-DC5D-BDA133CC1967}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000000080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5111,7 +5052,7 @@
             <xdr:cNvPr id="2049" name="テキスト ボックス 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC25632D-4128-9171-CAEE-F85F1E860FD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5267,7 +5208,7 @@
           <xdr:cNvPr id="2051" name="グループ化 2050">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9BDFEE-3928-49FC-8FBA-50F2FC991AFE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003080000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5286,7 +5227,7 @@
             <xdr:cNvPr id="2052" name="四角形: 角を丸くする 2051">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89FBD2-D966-9A20-274C-045C7382ED4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5343,7 +5284,7 @@
             <xdr:cNvPr id="2058" name="テキスト ボックス 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C7BFC-366E-9829-1E38-C07A794574CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5515,7 +5456,7 @@
         <xdr:cNvPr id="2060" name="直線コネクタ 2059">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC9845B-B989-46D9-9FF5-EAAD90A9BF58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5572,7 +5513,7 @@
         <xdr:cNvPr id="2063" name="直線コネクタ 2062">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB629282-BF2F-478E-8797-03FAD1445703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6212,14 +6153,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29A2DD-4D36-4B96-81AF-4631D4125FF3}">
   <dimension ref="M2:AJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="14" max="14" width="3.125" customWidth="1"/>
     <col min="23" max="24" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="13:36" x14ac:dyDescent="0.4">
@@ -6330,8 +6272,8 @@
       <c r="AI6" t="s">
         <v>63</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>67</v>
+      <c r="AJ6">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6344,7 +6286,7 @@
       <c r="R7" s="31"/>
       <c r="T7" s="14"/>
       <c r="X7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="27" t="s">
         <v>49</v>
@@ -6360,7 +6302,7 @@
         <v>64</v>
       </c>
       <c r="AJ7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="13:36" x14ac:dyDescent="0.4">
@@ -6382,8 +6324,8 @@
       <c r="AI8" t="s">
         <v>65</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>67</v>
+      <c r="AJ8">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="13:36" x14ac:dyDescent="0.4">
@@ -6393,7 +6335,7 @@
       <c r="N9" s="14"/>
       <c r="T9" s="14"/>
       <c r="X9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA9" s="27" t="s">
         <v>51</v>
@@ -6409,7 +6351,7 @@
         <v>66</v>
       </c>
       <c r="AJ9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="13:36" x14ac:dyDescent="0.4">
@@ -6505,7 +6447,7 @@
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
       <c r="AC14" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD14" s="20"/>
       <c r="AE14" s="21"/>
@@ -6576,7 +6518,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="11"/>
       <c r="V22" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="25"/>
@@ -6595,7 +6537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96B22C-118A-4D05-B4AF-6A517BBEC34B}">
   <dimension ref="I8:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>

--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3941A44-87AC-4DA1-BF47-40E9111927DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70020588-BBDC-4DAA-896D-8831B4C0BF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="3225" yWindow="1035" windowWidth="21600" windowHeight="12450" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,9 +679,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2122,14 +2119,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2145,83 +2142,24 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6629400" y="2714625"/>
-          <a:ext cx="390525" cy="85725"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6410325" y="2762250"/>
+          <a:ext cx="219075" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5FE33D-B7F7-4886-903C-094B349657E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1571625"/>
-          <a:ext cx="352425" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2938,7 +2876,7 @@
   <dimension ref="M2:AJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3116,8 +3054,6 @@
         <v>4</v>
       </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
       <c r="T9" s="14"/>
       <c r="X9" t="s">
         <v>71</v>
@@ -3144,8 +3080,6 @@
         <v>5</v>
       </c>
       <c r="N10" s="14"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
       <c r="T10" s="14"/>
       <c r="AA10" s="27"/>
       <c r="AB10" t="s">
@@ -3161,8 +3095,6 @@
         <v>6</v>
       </c>
       <c r="N11" s="14"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
       <c r="T11" s="15"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
@@ -3184,8 +3116,6 @@
         <v>7</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
       <c r="T12" t="s">
         <v>8</v>
       </c>

--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF669D0-34B1-4A44-8318-42A01063384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD840D11-F28D-4597-8D3D-0B2F395C2309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="660" windowWidth="24825" windowHeight="14085" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="30030" yWindow="180" windowWidth="24930" windowHeight="13770" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="schematic" sheetId="2" r:id="rId2"/>
+    <sheet name="接続図" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>D01</t>
     <phoneticPr fontId="1"/>
@@ -221,26 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BEn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BPh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AEn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bout2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,14 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AIN5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AIN4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PR_left</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,15 +277,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PWM1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWM2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>usb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●1V8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●BEn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●BPh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●AEn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●APh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●AIN4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIN5●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1V8●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bat●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D19●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D18●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D21●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D20●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォトリフレクタ用抵抗</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPRESENSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニバーサル基板</t>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -338,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +408,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -563,13 +632,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,79 +681,136 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,23 +841,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,8 +865,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="3552825"/>
-          <a:ext cx="0" cy="962025"/>
+          <a:off x="4381500" y="2314575"/>
+          <a:ext cx="1447800" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -761,181 +896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="4467225"/>
-          <a:ext cx="1905000" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4162425" y="3552825"/>
-          <a:ext cx="0" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="4210050"/>
-          <a:ext cx="1971675" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -950,8 +920,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105525" y="4191000"/>
-          <a:ext cx="0" cy="295275"/>
+          <a:off x="4410075" y="2552700"/>
+          <a:ext cx="1685925" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -982,15 +952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1005,8 +975,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876675" y="1638300"/>
-          <a:ext cx="3371850" cy="466725"/>
+          <a:off x="3952875" y="1552575"/>
+          <a:ext cx="3381375" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1037,15 +1007,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1060,8 +1030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="1638300"/>
-          <a:ext cx="4000500" cy="914400"/>
+          <a:off x="3200400" y="1533525"/>
+          <a:ext cx="4162425" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1092,15 +1062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1115,8 +1085,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514725" y="1619250"/>
-          <a:ext cx="3695700" cy="685800"/>
+          <a:off x="3476625" y="1543050"/>
+          <a:ext cx="3876675" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1143,15 +1113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1166,8 +1136,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="1590675"/>
-          <a:ext cx="3038475" cy="238125"/>
+          <a:off x="4191000" y="1533525"/>
+          <a:ext cx="3171825" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1200,9 +1170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1218,7 +1188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6448425" y="1104900"/>
-          <a:ext cx="790575" cy="476250"/>
+          <a:ext cx="866775" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1251,11 +1221,11 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1272,8 +1242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6448425" y="1295400"/>
-          <a:ext cx="790575" cy="1447800"/>
+          <a:off x="6448425" y="1333500"/>
+          <a:ext cx="895350" cy="1390650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1504,15 +1474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1527,8 +1497,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3200400" y="2962275"/>
-          <a:ext cx="1457325" cy="247650"/>
+          <a:off x="3190875" y="2962275"/>
+          <a:ext cx="1466850" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1565,9 +1535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1583,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4667250" y="2981325"/>
-          <a:ext cx="2228850" cy="219075"/>
+          <a:ext cx="2181225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1613,16 +1583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1636,9 +1606,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6486525" y="3295650"/>
-          <a:ext cx="571500" cy="228600"/>
+        <a:xfrm>
+          <a:off x="6372225" y="3514725"/>
+          <a:ext cx="390525" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1718,13 +1688,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1738,9 +1708,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5676900" y="3209925"/>
-          <a:ext cx="1638300" cy="9525"/>
+        <a:xfrm>
+          <a:off x="5676900" y="3267075"/>
+          <a:ext cx="1619250" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1767,15 +1737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1789,9 +1759,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3771900" y="3238500"/>
-          <a:ext cx="1304925" cy="19050"/>
+        <a:xfrm flipV="1">
+          <a:off x="3657600" y="3305175"/>
+          <a:ext cx="1466850" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1818,7 +1788,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -1826,7 +1796,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1841,8 +1811,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4752975" y="3276600"/>
-          <a:ext cx="552450" cy="266700"/>
+          <a:off x="4676775" y="3276600"/>
+          <a:ext cx="628650" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1868,16 +1838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1891,9 +1861,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3438525" y="3333750"/>
-          <a:ext cx="1171575" cy="238125"/>
+        <a:xfrm flipV="1">
+          <a:off x="3686175" y="3533775"/>
+          <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2126,11 +2096,11 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2147,8 +2117,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6381750" y="2781300"/>
-          <a:ext cx="247650" cy="9525"/>
+          <a:off x="6381750" y="2762250"/>
+          <a:ext cx="228600" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2240,9 +2210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2258,7 +2228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5924550" y="3305175"/>
-          <a:ext cx="390525" cy="238125"/>
+          <a:ext cx="476250" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2280,6 +2250,747 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CF4D50-76EE-4D5C-88E3-140BA1D89F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3457575" y="3514725"/>
+          <a:ext cx="219075" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AE1FBB-E215-4B47-A0AE-B7CBF6FE03DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6753225" y="3543300"/>
+          <a:ext cx="342900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="吹き出し: 角を丸めた四角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C791BC4D-08BD-1C79-96DE-271B7914FBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="752475"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43253"/>
+            <a:gd name="adj2" fmla="val 128018"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出力端子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="吹き出し: 角を丸めた四角形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDCEA4C-6250-4E4D-AB45-84938DE6D54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="371475"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59311"/>
+            <a:gd name="adj2" fmla="val 259052"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出力端子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="吹き出し: 角を丸めた四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93A6205-814D-4CC9-AC42-2AA6F107E8AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="1800225"/>
+          <a:ext cx="1304925" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 121355"/>
+            <a:gd name="adj2" fmla="val 77933"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バッテリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力端子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="吹き出し: 角を丸めた四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E74AADC-12E7-4BD2-AFDA-3E317A25D062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="3781426"/>
+          <a:ext cx="1304925" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 91428"/>
+            <a:gd name="adj2" fmla="val 48375"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バッテリ入力パッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="吹き出し: 角を丸めた四角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C2E6A1-A12D-4AAC-8F5F-2E8ED4BCA431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="2800349"/>
+          <a:ext cx="1514475" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83250"/>
+            <a:gd name="adj2" fmla="val 43317"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フォトリフレクタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力端子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="吹き出し: 角を丸めた四角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111FAE18-84FD-4C61-8C4E-B7E7A0299800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="381000"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64776"/>
+            <a:gd name="adj2" fmla="val 286639"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モータドライバ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="吹き出し: 角を丸めた四角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFCF45D-4AE7-49ED-96BA-13894CE94EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="3981449"/>
+          <a:ext cx="1514475" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55115"/>
+            <a:gd name="adj2" fmla="val -110204"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フォトリフレクタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力端子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6151,385 +6862,572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29A2DD-4D36-4B96-81AF-4631D4125FF3}">
-  <dimension ref="M2:AJ22"/>
+  <dimension ref="M2:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="14" max="14" width="3.125" customWidth="1"/>
-    <col min="23" max="24" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="3.125" style="5"/>
+    <col min="14" max="14" width="3.125" style="5" customWidth="1"/>
+    <col min="15" max="22" width="3.125" style="5"/>
+    <col min="23" max="24" width="3.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="35" width="3.125" style="5"/>
+    <col min="36" max="36" width="3.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="3.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T2">
+    <row r="2" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="T2" s="5">
         <v>7</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>8</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>9</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>10</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="5">
         <v>11</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>12</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="5">
         <v>13</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="26"/>
+    <row r="3" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="34"/>
     </row>
-    <row r="4" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T4" s="14"/>
-      <c r="AA4" s="27" t="s">
+    <row r="4" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5">
+        <v>6</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M11" s="5">
+        <v>6</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M12" s="5">
+        <v>7</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M13" s="5">
+        <v>8</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="23"/>
+    </row>
+    <row r="14" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="5">
         <v>9</v>
       </c>
+      <c r="N14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="17"/>
     </row>
-    <row r="5" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="AA5" s="27" t="s">
+    <row r="15" spans="13:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M15" s="5">
+        <v>10</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="13:38" x14ac:dyDescent="0.4">
+      <c r="T16" s="32"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="20:31" x14ac:dyDescent="0.4">
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="43"/>
+    </row>
+    <row r="18" spans="20:31" x14ac:dyDescent="0.4">
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="43"/>
+      <c r="AD18" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="20:31" x14ac:dyDescent="0.4">
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="43"/>
+      <c r="AD19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="20:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="43"/>
+      <c r="AD20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB5">
-        <v>15</v>
-      </c>
-      <c r="AC5">
-        <v>16</v>
-      </c>
-      <c r="AD5">
-        <v>17</v>
-      </c>
-      <c r="AE5">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="19" t="s">
+    <row r="21" spans="20:31" x14ac:dyDescent="0.4">
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="43"/>
+      <c r="AD21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="20:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="14"/>
-      <c r="AA6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="T7" s="14"/>
-      <c r="X7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" t="s">
+      <c r="W22" s="50"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="52"/>
+      <c r="AD22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="AA8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="X9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE11" s="22"/>
-      <c r="AF11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="T12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="T13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="X13" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="16"/>
-    </row>
-    <row r="14" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="AC14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="21"/>
-    </row>
-    <row r="15" spans="13:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="25"/>
-    </row>
-    <row r="16" spans="13:36" x14ac:dyDescent="0.4">
-      <c r="T16" s="13"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="18"/>
-    </row>
-    <row r="17" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T17" s="14"/>
-      <c r="AA17" s="16"/>
-    </row>
-    <row r="18" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T18" s="14"/>
-      <c r="AA18" s="16"/>
-    </row>
-    <row r="19" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T19" s="14"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="16"/>
-    </row>
-    <row r="20" spans="20:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T20" s="14"/>
-      <c r="AA20" s="16"/>
-    </row>
-    <row r="21" spans="20:27" x14ac:dyDescent="0.4">
-      <c r="T21" s="14"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="21"/>
-      <c r="AA21" s="16"/>
-    </row>
-    <row r="22" spans="20:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T22" s="15"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="24"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/document/sora-q.xlsx
+++ b/document/sora-q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SORA-Q\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD840D11-F28D-4597-8D3D-0B2F395C2309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F2D8C-9449-4197-9FBC-86DE5173BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="180" windowWidth="24930" windowHeight="13770" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26265" windowHeight="13950" activeTab="1" xr2:uid="{0EF5592B-5E0B-4A8E-8A02-3C2225FF3062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2547,15 +2547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2570,13 +2570,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895475" y="1800225"/>
-          <a:ext cx="1304925" cy="581025"/>
+          <a:off x="1838325" y="1800225"/>
+          <a:ext cx="1524000" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 121355"/>
-            <a:gd name="adj2" fmla="val 77933"/>
+            <a:gd name="adj1" fmla="val 100105"/>
+            <a:gd name="adj2" fmla="val 58215"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2632,8 +2632,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>入力端子</a:t>
+            <a:t>入力端子（裏面）</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6865,7 +6870,7 @@
   <dimension ref="M2:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+      <selection activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
